--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,86 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E8" s="3">
         <v>8100</v>
@@ -753,37 +756,40 @@
         <v>8100</v>
       </c>
       <c r="H8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>7000</v>
       </c>
       <c r="K8" s="3">
         <v>7000</v>
       </c>
       <c r="L8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5900</v>
       </c>
       <c r="P8" s="3">
         <v>5900</v>
       </c>
       <c r="Q8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,43 +1124,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
       </c>
       <c r="G17" s="3">
         <v>2000</v>
       </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
@@ -1146,55 +1172,61 @@
       <c r="Q17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6100</v>
       </c>
       <c r="G18" s="3">
         <v>6100</v>
       </c>
       <c r="H18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I18" s="3">
         <v>6000</v>
       </c>
       <c r="J18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>5000</v>
       </c>
       <c r="P18" s="3">
         <v>5000</v>
       </c>
       <c r="Q18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4100</v>
       </c>
       <c r="J20" s="3">
         <v>-4100</v>
       </c>
       <c r="K20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1288,26 +1324,29 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1500</v>
       </c>
       <c r="N21" s="3">
         <v>1500</v>
       </c>
       <c r="O21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,46 +1404,49 @@
         <v>2600</v>
       </c>
       <c r="E23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1200</v>
       </c>
       <c r="O23" s="3">
         <v>1200</v>
       </c>
       <c r="P23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,34 +1457,34 @@
         <v>700</v>
       </c>
       <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K24" s="3">
         <v>500</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>500</v>
       </c>
       <c r="N24" s="3">
         <v>500</v>
       </c>
       <c r="O24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,43 +1542,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1200</v>
       </c>
       <c r="K26" s="3">
         <v>1200</v>
       </c>
       <c r="L26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>700</v>
       </c>
       <c r="O26" s="3">
         <v>700</v>
@@ -1539,45 +1590,48 @@
         <v>700</v>
       </c>
       <c r="Q26" s="3">
+        <v>700</v>
+      </c>
+      <c r="R26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1200</v>
       </c>
       <c r="K27" s="3">
         <v>1200</v>
       </c>
       <c r="L27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>700</v>
       </c>
       <c r="O27" s="3">
         <v>700</v>
@@ -1586,10 +1640,13 @@
         <v>700</v>
       </c>
       <c r="Q27" s="3">
+        <v>700</v>
+      </c>
+      <c r="R27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,8 +1712,8 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1662,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,90 +1842,96 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4100</v>
       </c>
       <c r="J32" s="3">
         <v>4100</v>
       </c>
       <c r="K32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>700</v>
       </c>
       <c r="O33" s="3">
         <v>700</v>
@@ -1868,10 +1940,13 @@
         <v>700</v>
       </c>
       <c r="Q33" s="3">
+        <v>700</v>
+      </c>
+      <c r="R33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +1992,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>700</v>
       </c>
       <c r="O35" s="3">
         <v>700</v>
@@ -1962,62 +2040,68 @@
         <v>700</v>
       </c>
       <c r="Q35" s="3">
+        <v>700</v>
+      </c>
+      <c r="R35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2080,29 +2166,32 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>14500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2127,29 +2216,32 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>9200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,29 +2516,32 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>14100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2456,14 +2566,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
@@ -2475,10 +2585,13 @@
         <v>800</v>
       </c>
       <c r="Q49" s="3">
+        <v>800</v>
+      </c>
+      <c r="R49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,29 +2716,32 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>833300</v>
+      </c>
+      <c r="E54" s="3">
         <v>855600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>846000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>823200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>843100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>816300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>807900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>801400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>810400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>790300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>795900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>755500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>733000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>702600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>748800</v>
+      </c>
+      <c r="E66" s="3">
         <v>773200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>765900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>746100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>765200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>739200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>730700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>724800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>732800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>709200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>716100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>676500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>654700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>623000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3453,29 +3626,32 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>55000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,26 +3797,29 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E76" s="3">
         <v>82400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3644,26 +3829,29 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>81100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +3897,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>700</v>
       </c>
       <c r="O81" s="3">
         <v>700</v>
@@ -3806,10 +4000,13 @@
         <v>700</v>
       </c>
       <c r="Q81" s="3">
+        <v>700</v>
+      </c>
+      <c r="R81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,29 +4051,32 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4135,29 +4351,32 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,29 +4421,32 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4342,29 +4571,32 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-31400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,29 +4841,32 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-7400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>37300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>28300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4690,25 +4941,28 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-35200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E8" s="3">
         <v>7800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8100</v>
       </c>
       <c r="F8" s="3">
         <v>8100</v>
@@ -759,37 +763,40 @@
         <v>8100</v>
       </c>
       <c r="I8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7000</v>
       </c>
       <c r="L8" s="3">
         <v>7000</v>
       </c>
       <c r="M8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5900</v>
       </c>
       <c r="Q8" s="3">
         <v>5900</v>
       </c>
       <c r="R8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,46 +1151,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2000</v>
       </c>
       <c r="H17" s="3">
         <v>2000</v>
       </c>
       <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
@@ -1175,58 +1202,64 @@
       <c r="R17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6100</v>
       </c>
       <c r="H18" s="3">
         <v>6100</v>
       </c>
       <c r="I18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J18" s="3">
         <v>6000</v>
       </c>
       <c r="K18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5000</v>
       </c>
       <c r="Q18" s="3">
         <v>5000</v>
       </c>
       <c r="R18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4100</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
       </c>
       <c r="L20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,26 +1364,29 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1500</v>
       </c>
       <c r="O21" s="3">
         <v>1500</v>
       </c>
       <c r="P21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
         <v>2600</v>
       </c>
       <c r="F23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1200</v>
       </c>
       <c r="P23" s="3">
         <v>1200</v>
       </c>
       <c r="Q23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1460,34 +1506,34 @@
         <v>700</v>
       </c>
       <c r="G24" s="3">
+        <v>700</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>600</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
       </c>
       <c r="K24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
       </c>
       <c r="O24" s="3">
         <v>500</v>
       </c>
       <c r="P24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,37 +1606,37 @@
         <v>1800</v>
       </c>
       <c r="E26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1200</v>
       </c>
       <c r="L26" s="3">
         <v>1200</v>
       </c>
       <c r="M26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>700</v>
       </c>
       <c r="P26" s="3">
         <v>700</v>
@@ -1593,10 +1645,13 @@
         <v>700</v>
       </c>
       <c r="R26" s="3">
+        <v>700</v>
+      </c>
+      <c r="S26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,37 +1659,37 @@
         <v>1800</v>
       </c>
       <c r="E27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1200</v>
       </c>
       <c r="L27" s="3">
         <v>1200</v>
       </c>
       <c r="M27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>700</v>
       </c>
       <c r="P27" s="3">
         <v>700</v>
@@ -1643,10 +1698,13 @@
         <v>700</v>
       </c>
       <c r="R27" s="3">
+        <v>700</v>
+      </c>
+      <c r="S27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,8 +1776,8 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1725,11 +1786,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,58 +1912,64 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4100</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
       </c>
       <c r="L32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,37 +1977,37 @@
         <v>1800</v>
       </c>
       <c r="E33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>700</v>
       </c>
       <c r="P33" s="3">
         <v>700</v>
@@ -1943,10 +2016,13 @@
         <v>700</v>
       </c>
       <c r="R33" s="3">
+        <v>700</v>
+      </c>
+      <c r="S33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,37 +2083,37 @@
         <v>1800</v>
       </c>
       <c r="E35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>700</v>
       </c>
       <c r="P35" s="3">
         <v>700</v>
@@ -2043,65 +2122,71 @@
         <v>700</v>
       </c>
       <c r="R35" s="3">
+        <v>700</v>
+      </c>
+      <c r="S35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2169,29 +2256,32 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>14500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2219,29 +2309,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>9200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>23800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2519,29 +2627,32 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>14100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2569,14 +2680,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
@@ -2588,10 +2699,13 @@
         <v>800</v>
       </c>
       <c r="R49" s="3">
+        <v>800</v>
+      </c>
+      <c r="S49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,29 +2839,32 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>817800</v>
+      </c>
+      <c r="E54" s="3">
         <v>833300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>855600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>846000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>823200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>843100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>816300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>807900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>801400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>810400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>790300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>795900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>755500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>733000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>702600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>737900</v>
+      </c>
+      <c r="E66" s="3">
         <v>748800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>773200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>765900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>746100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>765200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>739200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>730700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>724800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>732800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>709200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>716100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>676500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>654700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>623000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3629,29 +3803,32 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>55000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,29 +3983,32 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E76" s="3">
         <v>84500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3832,26 +4018,29 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>81100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,37 +4159,37 @@
         <v>1800</v>
       </c>
       <c r="E81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>700</v>
       </c>
       <c r="P81" s="3">
         <v>700</v>
@@ -4003,10 +4198,13 @@
         <v>700</v>
       </c>
       <c r="R81" s="3">
+        <v>700</v>
+      </c>
+      <c r="S81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4054,29 +4253,32 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4354,29 +4571,32 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4424,29 +4645,32 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4574,29 +4804,32 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-31400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4844,29 +5090,32 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>41300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>37300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>28300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4944,25 +5196,28 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-35200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E8" s="3">
         <v>7700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8100</v>
       </c>
       <c r="G8" s="3">
         <v>8100</v>
@@ -766,37 +770,40 @@
         <v>8100</v>
       </c>
       <c r="J8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7000</v>
       </c>
       <c r="M8" s="3">
         <v>7000</v>
       </c>
       <c r="N8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5900</v>
       </c>
       <c r="R8" s="3">
         <v>5900</v>
       </c>
       <c r="S8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,49 +1178,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
       </c>
       <c r="I17" s="3">
         <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
@@ -1205,61 +1232,67 @@
       <c r="S17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6100</v>
       </c>
       <c r="I18" s="3">
         <v>6100</v>
       </c>
       <c r="J18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K18" s="3">
         <v>6000</v>
       </c>
       <c r="L18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M18" s="3">
         <v>5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5000</v>
       </c>
       <c r="R18" s="3">
         <v>5000</v>
       </c>
       <c r="S18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-4100</v>
       </c>
       <c r="L20" s="3">
         <v>-4100</v>
       </c>
       <c r="M20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,26 +1404,29 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1500</v>
       </c>
       <c r="P21" s="3">
         <v>1500</v>
       </c>
       <c r="Q21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2600</v>
       </c>
       <c r="F23" s="3">
         <v>2600</v>
       </c>
       <c r="G23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1200</v>
       </c>
       <c r="Q23" s="3">
         <v>1200</v>
       </c>
       <c r="R23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
@@ -1509,34 +1555,34 @@
         <v>700</v>
       </c>
       <c r="H24" s="3">
+        <v>700</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>600</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M24" s="3">
         <v>500</v>
       </c>
       <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,49 +1646,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="3">
         <v>1800</v>
       </c>
       <c r="F26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1200</v>
       </c>
       <c r="M26" s="3">
         <v>1200</v>
       </c>
       <c r="N26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>700</v>
       </c>
       <c r="Q26" s="3">
         <v>700</v>
@@ -1648,51 +1700,54 @@
         <v>700</v>
       </c>
       <c r="S26" s="3">
+        <v>700</v>
+      </c>
+      <c r="T26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="3">
         <v>1800</v>
       </c>
       <c r="F27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1200</v>
       </c>
       <c r="M27" s="3">
         <v>1200</v>
       </c>
       <c r="N27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>700</v>
       </c>
       <c r="Q27" s="3">
         <v>700</v>
@@ -1701,10 +1756,13 @@
         <v>700</v>
       </c>
       <c r="S27" s="3">
+        <v>700</v>
+      </c>
+      <c r="T27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1840,8 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1789,11 +1850,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,102 +1982,108 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4100</v>
       </c>
       <c r="L32" s="3">
         <v>4100</v>
       </c>
       <c r="M32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="3">
         <v>1800</v>
       </c>
       <c r="F33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>700</v>
       </c>
       <c r="Q33" s="3">
         <v>700</v>
@@ -2019,10 +2092,13 @@
         <v>700</v>
       </c>
       <c r="S33" s="3">
+        <v>700</v>
+      </c>
+      <c r="T33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,49 +2150,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="3">
         <v>1800</v>
       </c>
       <c r="F35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>700</v>
       </c>
       <c r="Q35" s="3">
         <v>700</v>
@@ -2125,68 +2204,74 @@
         <v>700</v>
       </c>
       <c r="S35" s="3">
+        <v>700</v>
+      </c>
+      <c r="T35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2259,29 +2346,32 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>14500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2312,29 +2402,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>9200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>23800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2630,29 +2738,32 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>14100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2683,14 +2794,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>800</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
@@ -2702,10 +2813,13 @@
         <v>800</v>
       </c>
       <c r="S49" s="3">
+        <v>800</v>
+      </c>
+      <c r="T49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,29 +2962,32 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E54" s="3">
         <v>817800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>833300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>855600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>846000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>823200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>843100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>816300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>807900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>801400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>810400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>790300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>795900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>755500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>733000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>702600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>827800</v>
+      </c>
+      <c r="E66" s="3">
         <v>737900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>748800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>773200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>765900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>746100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>765200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>739200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>730700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>724800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>732800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>709200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>716100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>676500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>654700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>623000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3806,29 +3980,32 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>55000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,32 +4169,35 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E76" s="3">
         <v>79800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4021,26 +4207,29 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>81100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,107 +4281,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E81" s="3">
         <v>1800</v>
       </c>
       <c r="F81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>700</v>
       </c>
       <c r="Q81" s="3">
         <v>700</v>
@@ -4201,10 +4396,13 @@
         <v>700</v>
       </c>
       <c r="S81" s="3">
+        <v>700</v>
+      </c>
+      <c r="T81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,29 +4455,32 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4574,29 +4791,32 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,29 +4869,32 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4807,29 +5037,32 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-31400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5093,29 +5339,32 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-7400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>41300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>28300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5199,25 +5451,28 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-35200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8100</v>
       </c>
       <c r="H8" s="3">
         <v>8100</v>
@@ -773,37 +777,40 @@
         <v>8100</v>
       </c>
       <c r="K8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7000</v>
       </c>
       <c r="N8" s="3">
         <v>7000</v>
       </c>
       <c r="O8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5900</v>
       </c>
       <c r="S8" s="3">
         <v>5900</v>
       </c>
       <c r="T8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,52 +1205,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2000</v>
       </c>
       <c r="J17" s="3">
         <v>2000</v>
       </c>
       <c r="K17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>900</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>5800</v>
       </c>
       <c r="E18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6100</v>
       </c>
       <c r="J18" s="3">
         <v>6100</v>
       </c>
       <c r="K18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="L18" s="3">
         <v>6000</v>
       </c>
       <c r="M18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5000</v>
       </c>
       <c r="S18" s="3">
         <v>5000</v>
       </c>
       <c r="T18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4100</v>
       </c>
       <c r="M20" s="3">
         <v>-4100</v>
       </c>
       <c r="N20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,26 +1444,29 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1500</v>
       </c>
       <c r="Q21" s="3">
         <v>1500</v>
       </c>
       <c r="R21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,72 +1521,78 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2600</v>
       </c>
       <c r="G23" s="3">
         <v>2600</v>
       </c>
       <c r="H23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1200</v>
       </c>
       <c r="R23" s="3">
         <v>1200</v>
       </c>
       <c r="S23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>700</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1558,34 +1604,34 @@
         <v>700</v>
       </c>
       <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>600</v>
       </c>
       <c r="M24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N24" s="3">
         <v>500</v>
       </c>
       <c r="O24" s="3">
+        <v>500</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
       </c>
       <c r="R24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,52 +1698,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1800</v>
       </c>
       <c r="F26" s="3">
         <v>1800</v>
       </c>
       <c r="G26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1200</v>
       </c>
       <c r="N26" s="3">
         <v>1200</v>
       </c>
       <c r="O26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>700</v>
       </c>
       <c r="R26" s="3">
         <v>700</v>
@@ -1703,54 +1755,57 @@
         <v>700</v>
       </c>
       <c r="T26" s="3">
+        <v>700</v>
+      </c>
+      <c r="U26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1800</v>
       </c>
       <c r="F27" s="3">
         <v>1800</v>
       </c>
       <c r="G27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1200</v>
       </c>
       <c r="N27" s="3">
         <v>1200</v>
       </c>
       <c r="O27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>700</v>
       </c>
       <c r="R27" s="3">
         <v>700</v>
@@ -1759,10 +1814,13 @@
         <v>700</v>
       </c>
       <c r="T27" s="3">
+        <v>700</v>
+      </c>
+      <c r="U27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +1904,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1853,11 +1914,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,108 +2052,114 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4100</v>
       </c>
       <c r="M32" s="3">
         <v>4100</v>
       </c>
       <c r="N32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1800</v>
       </c>
       <c r="F33" s="3">
         <v>1800</v>
       </c>
       <c r="G33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>700</v>
       </c>
       <c r="R33" s="3">
         <v>700</v>
@@ -2095,10 +2168,13 @@
         <v>700</v>
       </c>
       <c r="T33" s="3">
+        <v>700</v>
+      </c>
+      <c r="U33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,52 +2229,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1800</v>
       </c>
       <c r="F35" s="3">
         <v>1800</v>
       </c>
       <c r="G35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>700</v>
       </c>
       <c r="R35" s="3">
         <v>700</v>
@@ -2207,71 +2286,77 @@
         <v>700</v>
       </c>
       <c r="T35" s="3">
+        <v>700</v>
+      </c>
+      <c r="U35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2349,29 +2436,32 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>14500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2405,29 +2495,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>9200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,29 +2849,32 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>14100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2797,14 +2908,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>800</v>
       </c>
       <c r="Q49" s="3">
         <v>800</v>
@@ -2816,10 +2927,13 @@
         <v>800</v>
       </c>
       <c r="T49" s="3">
+        <v>800</v>
+      </c>
+      <c r="U49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,29 +3085,32 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>887300</v>
+      </c>
+      <c r="E54" s="3">
         <v>905200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>817800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>833300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>855600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>846000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>823200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>843100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>816300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>807900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>801400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>810400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>790300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>795900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>755500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>733000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>702600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>808400</v>
+      </c>
+      <c r="E66" s="3">
         <v>827800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>737900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>748800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>773200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>765900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>746100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>765200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>739200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>730700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>724800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>732800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>709200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>716100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>676500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>654700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>623000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3983,29 +4157,32 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>55000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,35 +4355,38 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E76" s="3">
         <v>77300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4210,26 +4396,29 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>81100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,113 +4473,119 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1800</v>
       </c>
       <c r="F81" s="3">
         <v>1800</v>
       </c>
       <c r="G81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>700</v>
       </c>
       <c r="R81" s="3">
         <v>700</v>
@@ -4399,10 +4594,13 @@
         <v>700</v>
       </c>
       <c r="T81" s="3">
+        <v>700</v>
+      </c>
+      <c r="U81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,29 +4657,32 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4794,29 +5011,32 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,29 +5093,32 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5040,29 +5270,32 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-31400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5342,29 +5588,32 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-7400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>41300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>28300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5454,25 +5706,28 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-35200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,120 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8100</v>
       </c>
       <c r="J8" s="3">
         <v>8100</v>
@@ -780,37 +787,43 @@
         <v>8100</v>
       </c>
       <c r="L8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,58 +1257,60 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>1400</v>
       </c>
       <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1100</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="S17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T17" s="3">
         <v>900</v>
@@ -1265,67 +1318,79 @@
       <c r="U17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>900</v>
+      </c>
+      <c r="W17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6200</v>
       </c>
       <c r="H18" s="3">
         <v>6300</v>
       </c>
       <c r="I18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5800</v>
       </c>
       <c r="O18" s="3">
         <v>6000</v>
       </c>
       <c r="P18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1412,75 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,26 +1520,32 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,81 +1603,93 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2400</v>
       </c>
       <c r="L23" s="3">
         <v>2000</v>
       </c>
       <c r="M23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
@@ -1607,43 +1698,49 @@
         <v>700</v>
       </c>
       <c r="J24" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>700</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
-        <v>400</v>
-      </c>
       <c r="T24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1900</v>
       </c>
       <c r="I26" s="3">
         <v>1800</v>
       </c>
       <c r="J26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>700</v>
       </c>
       <c r="T26" s="3">
         <v>700</v>
       </c>
       <c r="U26" s="3">
+        <v>700</v>
+      </c>
+      <c r="V26" s="3">
+        <v>700</v>
+      </c>
+      <c r="W26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1900</v>
       </c>
       <c r="I27" s="3">
         <v>1800</v>
       </c>
       <c r="J27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>700</v>
       </c>
       <c r="T27" s="3">
         <v>700</v>
       </c>
       <c r="U27" s="3">
+        <v>700</v>
+      </c>
+      <c r="V27" s="3">
+        <v>700</v>
+      </c>
+      <c r="W27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,53 +1993,59 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1900</v>
       </c>
       <c r="I33" s="3">
         <v>1800</v>
       </c>
       <c r="J33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>700</v>
       </c>
       <c r="T33" s="3">
         <v>700</v>
       </c>
       <c r="U33" s="3">
+        <v>700</v>
+      </c>
+      <c r="V33" s="3">
+        <v>700</v>
+      </c>
+      <c r="W33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1900</v>
       </c>
       <c r="I35" s="3">
         <v>1800</v>
       </c>
       <c r="J35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>700</v>
       </c>
       <c r="T35" s="3">
         <v>700</v>
       </c>
       <c r="U35" s="3">
+        <v>700</v>
+      </c>
+      <c r="V35" s="3">
+        <v>700</v>
+      </c>
+      <c r="W35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2439,29 +2612,35 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>14500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>35000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>25700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>28900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>19100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2498,29 +2677,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>9200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>23800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>19700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>11800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,29 +3067,35 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>14100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>15600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>15500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2911,17 +3132,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>800</v>
-      </c>
-      <c r="R49" s="3">
-        <v>800</v>
       </c>
       <c r="S49" s="3">
         <v>800</v>
@@ -2930,10 +3151,16 @@
         <v>800</v>
       </c>
       <c r="U49" s="3">
+        <v>800</v>
+      </c>
+      <c r="V49" s="3">
+        <v>800</v>
+      </c>
+      <c r="W49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3088,29 +3327,35 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>892400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>906300</v>
+      </c>
+      <c r="F54" s="3">
         <v>887300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>905200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>817800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>833300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>855600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>846000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>823200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>843100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>816300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>807900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>801400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>810400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>790300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>795900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>755500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>733000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>702600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3658,14 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>809700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>824900</v>
+      </c>
+      <c r="F66" s="3">
         <v>808400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>827800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>737900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>748800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>773200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>765900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>746100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>765200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>739200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>730700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>724800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>732800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>709200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>716100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>676500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>654700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>623000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4463,14 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4160,29 +4507,35 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>55000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>54500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>53700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>52900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>52200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F76" s="3">
         <v>78900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>77300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>79800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>84500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>82400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>80000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>77200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>77800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>81100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>79800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>79100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>78300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>79600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1900</v>
       </c>
       <c r="I81" s="3">
         <v>1800</v>
       </c>
       <c r="J81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>700</v>
       </c>
       <c r="T81" s="3">
         <v>700</v>
       </c>
       <c r="U81" s="3">
+        <v>700</v>
+      </c>
+      <c r="V81" s="3">
+        <v>700</v>
+      </c>
+      <c r="W81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4660,29 +5057,35 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5014,29 +5447,35 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5096,29 +5537,35 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5273,29 +5732,35 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-26800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-21800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-21300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-21600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5591,29 +6082,35 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>41300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>37300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>28300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5709,25 +6212,31 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>13400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>12400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>11800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>8100</v>
       </c>
       <c r="K8" s="3">
         <v>8100</v>
@@ -793,37 +797,40 @@
         <v>8100</v>
       </c>
       <c r="N8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7000</v>
       </c>
       <c r="Q8" s="3">
         <v>7000</v>
       </c>
       <c r="R8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>5900</v>
       </c>
       <c r="V8" s="3">
         <v>5900</v>
       </c>
       <c r="W8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="X8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,61 +1285,62 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2000</v>
       </c>
       <c r="M17" s="3">
         <v>2000</v>
       </c>
       <c r="N17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>900</v>
       </c>
       <c r="U17" s="3">
         <v>900</v>
@@ -1324,73 +1351,79 @@
       <c r="W17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5800</v>
       </c>
       <c r="G18" s="3">
         <v>5800</v>
       </c>
       <c r="H18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I18" s="3">
         <v>6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6100</v>
       </c>
       <c r="M18" s="3">
         <v>6100</v>
       </c>
       <c r="N18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="O18" s="3">
         <v>6000</v>
       </c>
       <c r="P18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>5000</v>
       </c>
       <c r="V18" s="3">
         <v>5000</v>
       </c>
       <c r="W18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4100</v>
       </c>
       <c r="P20" s="3">
         <v>-4100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1526,26 +1563,29 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1500</v>
       </c>
       <c r="T21" s="3">
         <v>1500</v>
       </c>
       <c r="U21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,90 +1649,96 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2600</v>
       </c>
       <c r="J23" s="3">
         <v>2600</v>
       </c>
       <c r="K23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1200</v>
       </c>
       <c r="U23" s="3">
         <v>1200</v>
       </c>
       <c r="V23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
       </c>
       <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
@@ -1704,34 +1750,34 @@
         <v>700</v>
       </c>
       <c r="L24" s="3">
+        <v>700</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>600</v>
       </c>
       <c r="O24" s="3">
         <v>600</v>
       </c>
       <c r="P24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
       </c>
       <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>500</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>400</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,61 +1853,64 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1800</v>
       </c>
       <c r="I26" s="3">
         <v>1800</v>
       </c>
       <c r="J26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1200</v>
       </c>
       <c r="Q26" s="3">
         <v>1200</v>
       </c>
       <c r="R26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>700</v>
       </c>
       <c r="U26" s="3">
         <v>700</v>
@@ -1867,63 +1919,66 @@
         <v>700</v>
       </c>
       <c r="W26" s="3">
+        <v>700</v>
+      </c>
+      <c r="X26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1800</v>
       </c>
       <c r="I27" s="3">
         <v>1800</v>
       </c>
       <c r="J27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1200</v>
       </c>
       <c r="Q27" s="3">
         <v>1200</v>
       </c>
       <c r="R27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>700</v>
       </c>
       <c r="U27" s="3">
         <v>700</v>
@@ -1932,10 +1987,13 @@
         <v>700</v>
       </c>
       <c r="W27" s="3">
+        <v>700</v>
+      </c>
+      <c r="X27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2034,8 +2095,8 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2044,11 +2105,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,126 +2261,132 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4100</v>
       </c>
       <c r="P32" s="3">
         <v>4100</v>
       </c>
       <c r="Q32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1800</v>
       </c>
       <c r="I33" s="3">
         <v>1800</v>
       </c>
       <c r="J33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>700</v>
       </c>
       <c r="U33" s="3">
         <v>700</v>
@@ -2322,10 +2395,13 @@
         <v>700</v>
       </c>
       <c r="W33" s="3">
+        <v>700</v>
+      </c>
+      <c r="X33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,61 +2465,64 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1800</v>
       </c>
       <c r="I35" s="3">
         <v>1800</v>
       </c>
       <c r="J35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>700</v>
       </c>
       <c r="U35" s="3">
         <v>700</v>
@@ -2452,80 +2531,86 @@
         <v>700</v>
       </c>
       <c r="W35" s="3">
+        <v>700</v>
+      </c>
+      <c r="X35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2618,29 +2705,32 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>14500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2683,29 +2773,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>9200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3073,29 +3181,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>14100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3138,14 +3249,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>700</v>
-      </c>
-      <c r="S49" s="3">
-        <v>800</v>
       </c>
       <c r="T49" s="3">
         <v>800</v>
@@ -3157,10 +3268,13 @@
         <v>800</v>
       </c>
       <c r="W49" s="3">
+        <v>800</v>
+      </c>
+      <c r="X49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3333,29 +3453,32 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E54" s="3">
         <v>892400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>906300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>887300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>905200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>817800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>833300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>855600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>846000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>823200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>843100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>816300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>807900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>801400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>810400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>790300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>795900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>755500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>733000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>702600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E66" s="3">
         <v>809700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>824900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>808400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>827800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>737900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>748800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>773200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>765900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>746100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>765200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>739200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>730700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>724800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>732800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>709200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>716100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>676500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>654700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>623000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4513,29 +4687,32 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>55000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>53700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,44 +4912,47 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E76" s="3">
         <v>82600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4776,26 +4962,29 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>81100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>79600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,131 +5048,137 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1800</v>
       </c>
       <c r="I81" s="3">
         <v>1800</v>
       </c>
       <c r="J81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>700</v>
       </c>
       <c r="U81" s="3">
         <v>700</v>
@@ -4992,10 +5187,13 @@
         <v>700</v>
       </c>
       <c r="W81" s="3">
+        <v>700</v>
+      </c>
+      <c r="X81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5063,29 +5262,32 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5453,29 +5670,32 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5543,29 +5764,32 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5738,29 +5968,32 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-31400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6088,29 +6334,32 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-7400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>41300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>37300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>28300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6218,25 +6470,28 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-35200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8100</v>
       </c>
       <c r="L8" s="3">
         <v>8100</v>
@@ -800,37 +804,40 @@
         <v>8100</v>
       </c>
       <c r="O8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>7000</v>
       </c>
       <c r="R8" s="3">
         <v>7000</v>
       </c>
       <c r="S8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T8" s="3">
         <v>6800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>5900</v>
       </c>
       <c r="W8" s="3">
         <v>5900</v>
       </c>
       <c r="X8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,64 +1312,65 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2000</v>
       </c>
       <c r="N17" s="3">
         <v>2000</v>
       </c>
       <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>900</v>
       </c>
       <c r="V17" s="3">
         <v>900</v>
@@ -1354,76 +1381,82 @@
       <c r="X17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5800</v>
       </c>
       <c r="H18" s="3">
         <v>5800</v>
       </c>
       <c r="I18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6100</v>
       </c>
       <c r="N18" s="3">
         <v>6100</v>
       </c>
       <c r="O18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="P18" s="3">
         <v>6000</v>
       </c>
       <c r="Q18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R18" s="3">
         <v>5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>5000</v>
       </c>
       <c r="W18" s="3">
         <v>5000</v>
       </c>
       <c r="X18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4100</v>
       </c>
       <c r="Q20" s="3">
         <v>-4100</v>
       </c>
       <c r="R20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,26 +1603,29 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1500</v>
       </c>
       <c r="U21" s="3">
         <v>1500</v>
       </c>
       <c r="V21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2600</v>
       </c>
       <c r="K23" s="3">
         <v>2600</v>
       </c>
       <c r="L23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1200</v>
       </c>
       <c r="V23" s="3">
         <v>1200</v>
       </c>
       <c r="W23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,19 +1775,19 @@
         <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>1000</v>
       </c>
       <c r="G24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
@@ -1753,34 +1799,34 @@
         <v>700</v>
       </c>
       <c r="M24" s="3">
+        <v>700</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
       </c>
       <c r="P24" s="3">
         <v>600</v>
       </c>
       <c r="Q24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R24" s="3">
         <v>500</v>
       </c>
       <c r="S24" s="3">
+        <v>500</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>500</v>
       </c>
       <c r="U24" s="3">
         <v>500</v>
       </c>
       <c r="V24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W24" s="3">
         <v>400</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,64 +1905,67 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1800</v>
       </c>
       <c r="J26" s="3">
         <v>1800</v>
       </c>
       <c r="K26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1200</v>
       </c>
       <c r="R26" s="3">
         <v>1200</v>
       </c>
       <c r="S26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>700</v>
       </c>
       <c r="V26" s="3">
         <v>700</v>
@@ -1922,66 +1974,69 @@
         <v>700</v>
       </c>
       <c r="X26" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1800</v>
       </c>
       <c r="J27" s="3">
         <v>1800</v>
       </c>
       <c r="K27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1200</v>
       </c>
       <c r="R27" s="3">
         <v>1200</v>
       </c>
       <c r="S27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>700</v>
       </c>
       <c r="V27" s="3">
         <v>700</v>
@@ -1990,10 +2045,13 @@
         <v>700</v>
       </c>
       <c r="X27" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2098,8 +2159,8 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2108,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,132 +2331,138 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4100</v>
       </c>
       <c r="Q32" s="3">
         <v>4100</v>
       </c>
       <c r="R32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1800</v>
       </c>
       <c r="J33" s="3">
         <v>1800</v>
       </c>
       <c r="K33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>700</v>
       </c>
       <c r="V33" s="3">
         <v>700</v>
@@ -2398,10 +2471,13 @@
         <v>700</v>
       </c>
       <c r="X33" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,64 +2544,67 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1800</v>
       </c>
       <c r="J35" s="3">
         <v>1800</v>
       </c>
       <c r="K35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>700</v>
       </c>
       <c r="V35" s="3">
         <v>700</v>
@@ -2534,83 +2613,89 @@
         <v>700</v>
       </c>
       <c r="X35" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2708,29 +2795,32 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>14500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2776,29 +2866,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>9200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3184,29 +3292,32 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>14100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3252,14 +3363,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>700</v>
-      </c>
-      <c r="T49" s="3">
-        <v>800</v>
       </c>
       <c r="U49" s="3">
         <v>800</v>
@@ -3271,10 +3382,13 @@
         <v>800</v>
       </c>
       <c r="X49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3456,29 +3576,32 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>921800</v>
+      </c>
+      <c r="E54" s="3">
         <v>905000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>892400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>906300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>887300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>905200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>817800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>833300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>855600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>846000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>823200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>843100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>816300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>807900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>801400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>810400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>790300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>795900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>755500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>733000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>702600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>836800</v>
+      </c>
+      <c r="E66" s="3">
         <v>819500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>809700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>824900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>808400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>827800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>737900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>748800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>773200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>765900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>746100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>765200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>739200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>730700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>724800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>732800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>709200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>716100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>676500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>654700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>623000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4690,29 +4864,32 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>55000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,47 +5098,50 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E76" s="3">
         <v>85600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>79800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>84500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4965,26 +5151,29 @@
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>81100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>79100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>78300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>79600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,137 +5240,143 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1800</v>
       </c>
       <c r="J81" s="3">
         <v>1800</v>
       </c>
       <c r="K81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>700</v>
       </c>
       <c r="V81" s="3">
         <v>700</v>
@@ -5190,10 +5385,13 @@
         <v>700</v>
       </c>
       <c r="X81" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5265,29 +5464,32 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5673,29 +5890,32 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,29 +5988,32 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5971,29 +6201,32 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-31400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6337,29 +6583,32 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-7400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>41300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>37300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>28300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6473,25 +6725,28 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-35200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,140 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>8100</v>
       </c>
       <c r="M8" s="3">
         <v>8100</v>
@@ -807,37 +810,40 @@
         <v>8100</v>
       </c>
       <c r="P8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>7600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>7000</v>
       </c>
       <c r="S8" s="3">
         <v>7000</v>
       </c>
       <c r="T8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U8" s="3">
         <v>6800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>5900</v>
       </c>
       <c r="X8" s="3">
         <v>5900</v>
       </c>
       <c r="Y8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Z8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,58 +1348,58 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>900</v>
       </c>
       <c r="W17" s="3">
         <v>900</v>
@@ -1384,79 +1410,85 @@
       <c r="Y17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5800</v>
       </c>
       <c r="I18" s="3">
         <v>5800</v>
       </c>
       <c r="J18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>6100</v>
       </c>
       <c r="O18" s="3">
         <v>6100</v>
       </c>
       <c r="P18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="Q18" s="3">
         <v>6000</v>
       </c>
       <c r="R18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S18" s="3">
         <v>5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>5000</v>
       </c>
       <c r="X18" s="3">
         <v>5000</v>
       </c>
       <c r="Y18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4100</v>
       </c>
       <c r="R20" s="3">
         <v>-4100</v>
       </c>
       <c r="S20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1606,26 +1642,29 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1500</v>
       </c>
       <c r="V21" s="3">
         <v>1500</v>
       </c>
       <c r="W21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X21" s="3">
         <v>1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,102 +1734,108 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2600</v>
       </c>
       <c r="L23" s="3">
         <v>2600</v>
       </c>
       <c r="M23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1200</v>
       </c>
       <c r="W23" s="3">
         <v>1200</v>
       </c>
       <c r="X23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
       </c>
       <c r="F24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>1000</v>
       </c>
       <c r="H24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1802,34 +1847,34 @@
         <v>700</v>
       </c>
       <c r="N24" s="3">
+        <v>700</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>600</v>
       </c>
       <c r="Q24" s="3">
         <v>600</v>
       </c>
       <c r="R24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>500</v>
       </c>
       <c r="T24" s="3">
+        <v>500</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>500</v>
       </c>
       <c r="W24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X24" s="3">
         <v>400</v>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,67 +1956,70 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1800</v>
       </c>
       <c r="K26" s="3">
         <v>1800</v>
       </c>
       <c r="L26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1200</v>
       </c>
       <c r="S26" s="3">
         <v>1200</v>
       </c>
       <c r="T26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>700</v>
       </c>
       <c r="W26" s="3">
         <v>700</v>
@@ -1977,69 +2028,72 @@
         <v>700</v>
       </c>
       <c r="Y26" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1800</v>
       </c>
       <c r="K27" s="3">
         <v>1800</v>
       </c>
       <c r="L27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1200</v>
       </c>
       <c r="S27" s="3">
         <v>1200</v>
       </c>
       <c r="T27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>700</v>
       </c>
       <c r="W27" s="3">
         <v>700</v>
@@ -2048,10 +2102,13 @@
         <v>700</v>
       </c>
       <c r="Y27" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,8 +2213,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2162,8 +2222,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2172,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-900</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,138 +2400,144 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4100</v>
       </c>
       <c r="R32" s="3">
         <v>4100</v>
       </c>
       <c r="S32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1800</v>
       </c>
       <c r="K33" s="3">
         <v>1800</v>
       </c>
       <c r="L33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>700</v>
       </c>
       <c r="W33" s="3">
         <v>700</v>
@@ -2474,10 +2546,13 @@
         <v>700</v>
       </c>
       <c r="Y33" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,67 +2622,70 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1800</v>
       </c>
       <c r="K35" s="3">
         <v>1800</v>
       </c>
       <c r="L35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>700</v>
       </c>
       <c r="W35" s="3">
         <v>700</v>
@@ -2616,86 +2694,92 @@
         <v>700</v>
       </c>
       <c r="Y35" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2798,29 +2884,32 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>14500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2869,29 +2958,32 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>9200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3295,29 +3402,32 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>14100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3366,14 +3476,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>700</v>
-      </c>
-      <c r="U49" s="3">
-        <v>800</v>
       </c>
       <c r="V49" s="3">
         <v>800</v>
@@ -3385,10 +3495,13 @@
         <v>800</v>
       </c>
       <c r="Y49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3579,29 +3698,32 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>914600</v>
+      </c>
+      <c r="E54" s="3">
         <v>921800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>905000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>892400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>906300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>887300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>905200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>817800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>833300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>855600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>846000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>823200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>843100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>816300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>807900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>801400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>810400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>790300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>795900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>755500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>733000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>702600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>828700</v>
+      </c>
+      <c r="E66" s="3">
         <v>836800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>819500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>809700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>824900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>808400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>827800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>737900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>748800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>773200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>765900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>746100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>765200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>739200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>730700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>724800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>732800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>709200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>716100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>676500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>654700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>623000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4867,29 +5040,32 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>55000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,50 +5283,53 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E76" s="3">
         <v>85000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>79800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5154,26 +5339,29 @@
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>81100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>79800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>79100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>78300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>79600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,143 +5431,149 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1800</v>
       </c>
       <c r="K81" s="3">
         <v>1800</v>
       </c>
       <c r="L81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>700</v>
       </c>
       <c r="W81" s="3">
         <v>700</v>
@@ -5388,10 +5582,13 @@
         <v>700</v>
       </c>
       <c r="Y81" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5467,29 +5665,32 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5893,29 +6109,32 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5991,29 +6211,32 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6204,29 +6433,32 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-31400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6586,29 +6831,32 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-7400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>41300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>37300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>28300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6728,25 +6979,28 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-35200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>8100</v>
       </c>
       <c r="N8" s="3">
         <v>8100</v>
@@ -813,37 +817,40 @@
         <v>8100</v>
       </c>
       <c r="Q8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R8" s="3">
         <v>7600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>7000</v>
       </c>
       <c r="T8" s="3">
         <v>7000</v>
       </c>
       <c r="U8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V8" s="3">
         <v>6800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6100</v>
-      </c>
-      <c r="X8" s="3">
-        <v>5900</v>
       </c>
       <c r="Y8" s="3">
         <v>5900</v>
       </c>
       <c r="Z8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AA8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,70 +1365,71 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
       </c>
       <c r="P17" s="3">
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>900</v>
       </c>
       <c r="X17" s="3">
         <v>900</v>
@@ -1413,82 +1440,88 @@
       <c r="Z17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5800</v>
       </c>
       <c r="J18" s="3">
         <v>5800</v>
       </c>
       <c r="K18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6100</v>
       </c>
       <c r="P18" s="3">
         <v>6100</v>
       </c>
       <c r="Q18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="R18" s="3">
         <v>6000</v>
       </c>
       <c r="S18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T18" s="3">
         <v>5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>5000</v>
       </c>
       <c r="Y18" s="3">
         <v>5000</v>
       </c>
       <c r="Z18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4100</v>
       </c>
       <c r="S20" s="3">
         <v>-4100</v>
       </c>
       <c r="T20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1645,26 +1682,29 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1500</v>
       </c>
       <c r="W21" s="3">
         <v>1500</v>
       </c>
       <c r="X21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,108 +1777,114 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2600</v>
       </c>
       <c r="M23" s="3">
         <v>2600</v>
       </c>
       <c r="N23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1200</v>
       </c>
       <c r="X23" s="3">
         <v>1200</v>
       </c>
       <c r="Y23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
       </c>
       <c r="G24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
         <v>1000</v>
       </c>
       <c r="I24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>700</v>
       </c>
       <c r="L24" s="3">
         <v>700</v>
@@ -1850,34 +1896,34 @@
         <v>700</v>
       </c>
       <c r="O24" s="3">
+        <v>700</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
       </c>
       <c r="R24" s="3">
         <v>600</v>
       </c>
       <c r="S24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>500</v>
       </c>
       <c r="W24" s="3">
         <v>500</v>
       </c>
       <c r="X24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,70 +2008,73 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1800</v>
       </c>
       <c r="L26" s="3">
         <v>1800</v>
       </c>
       <c r="M26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1200</v>
       </c>
       <c r="T26" s="3">
         <v>1200</v>
       </c>
       <c r="U26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>700</v>
       </c>
       <c r="X26" s="3">
         <v>700</v>
@@ -2031,72 +2083,75 @@
         <v>700</v>
       </c>
       <c r="Z26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1800</v>
       </c>
       <c r="L27" s="3">
         <v>1800</v>
       </c>
       <c r="M27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1200</v>
       </c>
       <c r="T27" s="3">
         <v>1200</v>
       </c>
       <c r="U27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>700</v>
       </c>
       <c r="X27" s="3">
         <v>700</v>
@@ -2105,10 +2160,13 @@
         <v>700</v>
       </c>
       <c r="Z27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,8 +2277,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2225,8 +2286,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2235,11 +2296,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,144 +2470,150 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4100</v>
       </c>
       <c r="S32" s="3">
         <v>4100</v>
       </c>
       <c r="T32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1800</v>
       </c>
       <c r="L33" s="3">
         <v>1800</v>
       </c>
       <c r="M33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>700</v>
       </c>
       <c r="X33" s="3">
         <v>700</v>
@@ -2549,10 +2622,13 @@
         <v>700</v>
       </c>
       <c r="Z33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,70 +2701,73 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1800</v>
       </c>
       <c r="L35" s="3">
         <v>1800</v>
       </c>
       <c r="M35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>700</v>
       </c>
       <c r="X35" s="3">
         <v>700</v>
@@ -2697,89 +2776,95 @@
         <v>700</v>
       </c>
       <c r="Z35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2887,29 +2974,32 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>14500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2961,29 +3051,32 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>9200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3405,29 +3513,32 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>14100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3479,14 +3590,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>700</v>
-      </c>
-      <c r="V49" s="3">
-        <v>800</v>
       </c>
       <c r="W49" s="3">
         <v>800</v>
@@ -3498,10 +3609,13 @@
         <v>800</v>
       </c>
       <c r="Z49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3701,29 +3821,32 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>4600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>908400</v>
+      </c>
+      <c r="E54" s="3">
         <v>914600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>921800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>905000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>892400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>906300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>887300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>905200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>817800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>833300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>855600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>846000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>823200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>843100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>816300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>807900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>801400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>810400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>790300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>795900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>755500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>733000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>702600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>827400</v>
+      </c>
+      <c r="E66" s="3">
         <v>828700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>836800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>819500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>809700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>824900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>808400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>827800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>737900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>748800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>773200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>765900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>746100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>765200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>739200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>730700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>724800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>732800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>709200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>716100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>676500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>654700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>623000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5043,29 +5217,32 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>55000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,53 +5469,56 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E76" s="3">
         <v>86000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5342,26 +5528,29 @@
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>81100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>79800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>79100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>78300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>79600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,149 +5623,155 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1800</v>
       </c>
       <c r="L81" s="3">
         <v>1800</v>
       </c>
       <c r="M81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>700</v>
       </c>
       <c r="X81" s="3">
         <v>700</v>
@@ -5585,10 +5780,13 @@
         <v>700</v>
       </c>
       <c r="Z81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5668,29 +5867,32 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>100</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6112,29 +6329,32 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>3600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6214,29 +6435,32 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6436,29 +6666,32 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-31400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6834,29 +7080,32 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-7400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>41300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>14800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>37300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>28300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6982,25 +7234,28 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-35200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>8100</v>
       </c>
       <c r="O8" s="3">
         <v>8100</v>
@@ -820,37 +824,40 @@
         <v>8100</v>
       </c>
       <c r="R8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>7000</v>
       </c>
       <c r="U8" s="3">
         <v>7000</v>
       </c>
       <c r="V8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W8" s="3">
         <v>6800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>5900</v>
       </c>
       <c r="Z8" s="3">
         <v>5900</v>
       </c>
       <c r="AA8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,64 +1402,64 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2000</v>
       </c>
       <c r="Q17" s="3">
         <v>2000</v>
       </c>
       <c r="R17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>900</v>
       </c>
       <c r="Y17" s="3">
         <v>900</v>
@@ -1443,85 +1470,91 @@
       <c r="AA17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5800</v>
       </c>
       <c r="K18" s="3">
         <v>5800</v>
       </c>
       <c r="L18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>6100</v>
       </c>
       <c r="Q18" s="3">
         <v>6100</v>
       </c>
       <c r="R18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="S18" s="3">
         <v>6000</v>
       </c>
       <c r="T18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U18" s="3">
         <v>5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5200</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>5000</v>
       </c>
       <c r="Z18" s="3">
         <v>5000</v>
       </c>
       <c r="AA18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4100</v>
       </c>
       <c r="T20" s="3">
         <v>-4100</v>
       </c>
       <c r="U20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1685,26 +1722,29 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1500</v>
       </c>
       <c r="X21" s="3">
         <v>1500</v>
       </c>
       <c r="Y21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2600</v>
       </c>
       <c r="N23" s="3">
         <v>2600</v>
       </c>
       <c r="O23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1200</v>
       </c>
       <c r="Y23" s="3">
         <v>1200</v>
       </c>
       <c r="Z23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,28 +1912,28 @@
         <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I24" s="3">
         <v>1000</v>
       </c>
       <c r="J24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>700</v>
       </c>
       <c r="M24" s="3">
         <v>700</v>
@@ -1899,34 +1945,34 @@
         <v>700</v>
       </c>
       <c r="P24" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>600</v>
       </c>
       <c r="T24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U24" s="3">
         <v>500</v>
       </c>
       <c r="V24" s="3">
+        <v>500</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>500</v>
       </c>
       <c r="X24" s="3">
         <v>500</v>
       </c>
       <c r="Y24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z24" s="3">
         <v>400</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,73 +2060,76 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1800</v>
       </c>
       <c r="M26" s="3">
         <v>1800</v>
       </c>
       <c r="N26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1200</v>
       </c>
       <c r="U26" s="3">
         <v>1200</v>
       </c>
       <c r="V26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>700</v>
       </c>
       <c r="Y26" s="3">
         <v>700</v>
@@ -2086,75 +2138,78 @@
         <v>700</v>
       </c>
       <c r="AA26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1800</v>
       </c>
       <c r="M27" s="3">
         <v>1800</v>
       </c>
       <c r="N27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1200</v>
       </c>
       <c r="U27" s="3">
         <v>1200</v>
       </c>
       <c r="V27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>700</v>
       </c>
       <c r="Y27" s="3">
         <v>700</v>
@@ -2163,10 +2218,13 @@
         <v>700</v>
       </c>
       <c r="AA27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2289,8 +2350,8 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2299,11 +2360,11 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-900</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,150 +2540,156 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>4100</v>
       </c>
       <c r="T32" s="3">
         <v>4100</v>
       </c>
       <c r="U32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1800</v>
       </c>
       <c r="M33" s="3">
         <v>1800</v>
       </c>
       <c r="N33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>700</v>
       </c>
       <c r="Y33" s="3">
         <v>700</v>
@@ -2625,10 +2698,13 @@
         <v>700</v>
       </c>
       <c r="AA33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,73 +2780,76 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1800</v>
       </c>
       <c r="M35" s="3">
         <v>1800</v>
       </c>
       <c r="N35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>700</v>
       </c>
       <c r="Y35" s="3">
         <v>700</v>
@@ -2779,92 +2858,98 @@
         <v>700</v>
       </c>
       <c r="AA35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2977,29 +3064,32 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>14500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3054,29 +3144,32 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>9200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3516,29 +3624,32 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>14100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3593,14 +3704,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>700</v>
-      </c>
-      <c r="W49" s="3">
-        <v>800</v>
       </c>
       <c r="X49" s="3">
         <v>800</v>
@@ -3612,10 +3723,13 @@
         <v>800</v>
       </c>
       <c r="AA49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3824,29 +3944,32 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>4600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>953800</v>
+      </c>
+      <c r="E54" s="3">
         <v>908400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>914600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>921800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>905000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>892400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>906300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>887300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>905200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>817800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>833300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>855600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>846000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>823200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>843100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>816300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>807900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>801400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>810400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>790300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>795900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>755500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>733000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>702600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>879900</v>
+      </c>
+      <c r="E66" s="3">
         <v>827400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>828700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>836800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>819500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>809700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>824900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>808400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>827800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>737900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>748800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>773200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>765900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>746100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>765200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>739200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>730700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>724800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>732800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>709200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>716100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>676500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>654700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>623000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5220,29 +5394,32 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>55000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>53700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,56 +5655,59 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E76" s="3">
         <v>81000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5531,26 +5717,29 @@
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>81100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>79800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>79100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>78300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>79600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,155 +5815,161 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1800</v>
       </c>
       <c r="M81" s="3">
         <v>1800</v>
       </c>
       <c r="N81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>700</v>
       </c>
       <c r="Y81" s="3">
         <v>700</v>
@@ -5783,10 +5978,13 @@
         <v>700</v>
       </c>
       <c r="AA81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5870,29 +6069,32 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>100</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>200</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6332,29 +6549,32 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6438,29 +6659,32 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6669,29 +6899,32 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-31400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7083,29 +7329,32 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-7400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>41300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>14800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>37300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>28300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7237,25 +7489,28 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-35200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,161 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O8" s="3">
         <v>7800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>7800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>8100</v>
       </c>
       <c r="P8" s="3">
         <v>8100</v>
@@ -827,37 +831,40 @@
         <v>8100</v>
       </c>
       <c r="S8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T8" s="3">
         <v>7600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>7000</v>
       </c>
       <c r="V8" s="3">
         <v>7000</v>
       </c>
       <c r="W8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X8" s="3">
         <v>6800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5900</v>
       </c>
       <c r="AA8" s="3">
         <v>5900</v>
       </c>
       <c r="AB8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AC8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,76 +1419,77 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2000</v>
       </c>
       <c r="R17" s="3">
         <v>2000</v>
       </c>
       <c r="S17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>900</v>
       </c>
       <c r="Z17" s="3">
         <v>900</v>
@@ -1473,88 +1500,94 @@
       <c r="AB17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6500</v>
       </c>
-      <c r="G18" s="3">
-        <v>6900</v>
-      </c>
       <c r="H18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5800</v>
       </c>
       <c r="L18" s="3">
         <v>5800</v>
       </c>
       <c r="M18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N18" s="3">
         <v>6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>6100</v>
       </c>
       <c r="R18" s="3">
         <v>6100</v>
       </c>
       <c r="S18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="T18" s="3">
         <v>6000</v>
       </c>
       <c r="U18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V18" s="3">
         <v>5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>5000</v>
       </c>
       <c r="AA18" s="3">
         <v>5000</v>
       </c>
       <c r="AB18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,93 +1616,97 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-4100</v>
       </c>
       <c r="U20" s="3">
         <v>-4100</v>
       </c>
       <c r="V20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>12300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1725,26 +1762,29 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1500</v>
       </c>
       <c r="Y21" s="3">
         <v>1500</v>
       </c>
       <c r="Z21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,120 +1863,126 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3200</v>
-      </c>
       <c r="H23" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2600</v>
       </c>
       <c r="O23" s="3">
         <v>2600</v>
       </c>
       <c r="P23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1200</v>
       </c>
       <c r="Z23" s="3">
         <v>1200</v>
       </c>
       <c r="AA23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
       </c>
       <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1000</v>
       </c>
       <c r="J24" s="3">
         <v>1000</v>
       </c>
       <c r="K24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>700</v>
       </c>
       <c r="N24" s="3">
         <v>700</v>
@@ -1948,34 +1994,34 @@
         <v>700</v>
       </c>
       <c r="Q24" s="3">
+        <v>700</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>600</v>
       </c>
       <c r="T24" s="3">
         <v>600</v>
       </c>
       <c r="U24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V24" s="3">
         <v>500</v>
       </c>
       <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>500</v>
       </c>
       <c r="Y24" s="3">
         <v>500</v>
       </c>
       <c r="Z24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA24" s="3">
         <v>400</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,76 +2112,79 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
-        <v>2300</v>
-      </c>
       <c r="H26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1800</v>
       </c>
       <c r="N26" s="3">
         <v>1800</v>
       </c>
       <c r="O26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1200</v>
       </c>
       <c r="V26" s="3">
         <v>1200</v>
       </c>
       <c r="W26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>700</v>
       </c>
       <c r="Z26" s="3">
         <v>700</v>
@@ -2141,78 +2193,81 @@
         <v>700</v>
       </c>
       <c r="AB26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
-        <v>2300</v>
-      </c>
       <c r="H27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1800</v>
       </c>
       <c r="N27" s="3">
         <v>1800</v>
       </c>
       <c r="O27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1200</v>
       </c>
       <c r="V27" s="3">
         <v>1200</v>
       </c>
       <c r="W27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>700</v>
       </c>
       <c r="Z27" s="3">
         <v>700</v>
@@ -2221,10 +2276,13 @@
         <v>700</v>
       </c>
       <c r="AB27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2405,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2353,8 +2414,8 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2363,11 +2424,11 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-900</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,156 +2610,162 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>4100</v>
       </c>
       <c r="U32" s="3">
         <v>4100</v>
       </c>
       <c r="V32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
-        <v>2300</v>
-      </c>
       <c r="H33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1800</v>
       </c>
       <c r="N33" s="3">
         <v>1800</v>
       </c>
       <c r="O33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>700</v>
       </c>
       <c r="Z33" s="3">
         <v>700</v>
@@ -2701,10 +2774,13 @@
         <v>700</v>
       </c>
       <c r="AB33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,76 +2859,79 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
-        <v>2300</v>
-      </c>
       <c r="H35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1800</v>
       </c>
       <c r="N35" s="3">
         <v>1800</v>
       </c>
       <c r="O35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>700</v>
       </c>
       <c r="Z35" s="3">
         <v>700</v>
@@ -2861,95 +2940,101 @@
         <v>700</v>
       </c>
       <c r="AB35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,31 +3094,32 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
+        <v>8800</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>10600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3067,52 +3154,55 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>14500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>31300</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+        <v>23500</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>19000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3147,29 +3237,32 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>9200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>19700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,31 +3673,34 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+        <v>19200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>19800</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3627,52 +3735,55 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>14100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3707,14 +3818,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>700</v>
-      </c>
-      <c r="X49" s="3">
-        <v>800</v>
       </c>
       <c r="Y49" s="3">
         <v>800</v>
@@ -3726,10 +3837,13 @@
         <v>800</v>
       </c>
       <c r="AB49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3947,29 +4067,32 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>4600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>957900</v>
+      </c>
+      <c r="E54" s="3">
         <v>953800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>908400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>914600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>921800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>905000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>892400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>906300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>887300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>905200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>817800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>833300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>855600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>846000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>823200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>843100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>816300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>807900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>801400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>810400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>790300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>795900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>755500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>733000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>702600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,25 +4648,28 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>886600</v>
+      </c>
+      <c r="E66" s="3">
         <v>879900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>827400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>828700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>836800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>819500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>809700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>824900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>808400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>827800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>737900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>748800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>773200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>765900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>746100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>765200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>739200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>730700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>724800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>732800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>709200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>716100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>676500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>654700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>623000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,31 +5509,34 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>91000</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>88500</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
+        <v>86800</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>83000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -5397,29 +5571,32 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>55000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>54500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>53700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>52200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,59 +5841,62 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E76" s="3">
         <v>73800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5720,26 +5906,29 @@
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>81100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>79800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>79100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>78300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>79600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,161 +6007,167 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
-        <v>2300</v>
-      </c>
       <c r="H81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1800</v>
       </c>
       <c r="N81" s="3">
         <v>1800</v>
       </c>
       <c r="O81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>700</v>
       </c>
       <c r="Z81" s="3">
         <v>700</v>
@@ -5981,10 +6176,13 @@
         <v>700</v>
       </c>
       <c r="AB81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,31 +6211,32 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6072,29 +6271,32 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
       <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>100</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>200</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,31 +6707,34 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6552,29 +6769,32 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>3600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6662,29 +6883,32 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,31 +7070,34 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-47500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6902,29 +7132,32 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-31400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,31 +7516,34 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>42600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7332,29 +7578,32 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-7400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>41300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>14800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>37300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>28300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,31 +7682,34 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7492,25 +7744,28 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-35200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>13400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBBW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>WBBW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,174 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F8" s="3">
         <v>28000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6500</v>
       </c>
       <c r="G8" s="3">
         <v>6800</v>
       </c>
       <c r="H8" s="3">
-        <v>28800</v>
+        <v>6500</v>
       </c>
       <c r="I8" s="3">
         <v>6800</v>
       </c>
       <c r="J8" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>8100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>8100</v>
       </c>
       <c r="R8" s="3">
         <v>8100</v>
@@ -834,37 +841,43 @@
         <v>8100</v>
       </c>
       <c r="T8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="V8" s="3">
         <v>7600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>7000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>6400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>6100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>5900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>5900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,82 +1471,84 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
       </c>
       <c r="O17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1100</v>
       </c>
       <c r="Y17" s="3">
         <v>1000</v>
       </c>
       <c r="Z17" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="AA17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB17" s="3">
         <v>900</v>
@@ -1503,91 +1556,103 @@
       <c r="AC17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F18" s="3">
         <v>26600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>6300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6200</v>
       </c>
       <c r="P18" s="3">
         <v>6300</v>
       </c>
       <c r="Q18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>6000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>5800</v>
       </c>
       <c r="W18" s="3">
         <v>6000</v>
       </c>
       <c r="X18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z18" s="3">
         <v>5700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>5200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>5000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>5000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,103 +1682,111 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-15500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-12900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3100</v>
       </c>
       <c r="K20" s="3">
         <v>-3000</v>
       </c>
       <c r="L20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1765,26 +1838,32 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,129 +1945,141 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>13300</v>
       </c>
       <c r="I23" s="3">
         <v>3000</v>
       </c>
       <c r="J23" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2400</v>
       </c>
       <c r="T23" s="3">
         <v>2000</v>
       </c>
       <c r="U23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>600</v>
       </c>
       <c r="N24" s="3">
         <v>700</v>
       </c>
       <c r="O24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P24" s="3">
         <v>700</v>
@@ -1997,43 +2088,49 @@
         <v>700</v>
       </c>
       <c r="R24" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S24" s="3">
         <v>700</v>
       </c>
       <c r="T24" s="3">
+        <v>500</v>
+      </c>
+      <c r="U24" s="3">
+        <v>700</v>
+      </c>
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>500</v>
-      </c>
-      <c r="X24" s="3">
-        <v>300</v>
       </c>
       <c r="Y24" s="3">
         <v>500</v>
       </c>
       <c r="Z24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
-        <v>400</v>
-      </c>
       <c r="AB24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1900</v>
       </c>
       <c r="Q26" s="3">
         <v>1800</v>
       </c>
       <c r="R26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>700</v>
       </c>
       <c r="AB26" s="3">
         <v>700</v>
       </c>
       <c r="AC26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1900</v>
       </c>
       <c r="Q27" s="3">
         <v>1800</v>
       </c>
       <c r="R27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>700</v>
       </c>
       <c r="AB27" s="3">
         <v>700</v>
       </c>
       <c r="AC27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,33 +2529,33 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-900</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>15500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>12900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3100</v>
       </c>
       <c r="K32" s="3">
         <v>3000</v>
       </c>
       <c r="L32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>4900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>4000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>3800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>3900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1900</v>
       </c>
       <c r="Q33" s="3">
         <v>1800</v>
       </c>
       <c r="R33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>700</v>
       </c>
       <c r="AB33" s="3">
         <v>700</v>
       </c>
       <c r="AC33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1900</v>
       </c>
       <c r="Q35" s="3">
         <v>1800</v>
       </c>
       <c r="R35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>700</v>
       </c>
       <c r="AB35" s="3">
         <v>700</v>
       </c>
       <c r="AC35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,37 +3266,39 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>10600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3157,58 +3330,64 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>14500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>35000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>25700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>28900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>19100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F42" s="3">
         <v>25200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>31300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>23500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>19000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3240,29 +3419,35 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>9200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>23800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>19700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>14400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>11800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,37 +3885,43 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="E48" s="3">
         <v>19300</v>
       </c>
       <c r="F48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H48" s="3">
         <v>19200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3738,29 +3953,35 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>14100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>15900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>15600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>15500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>15400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,23 +3994,23 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3821,17 +4042,17 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>700</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>800</v>
       </c>
       <c r="AA49" s="3">
         <v>800</v>
@@ -3840,10 +4061,16 @@
         <v>800</v>
       </c>
       <c r="AC49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE49" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4070,29 +4309,35 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>4600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>5000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>6200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>5400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>909500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>938000</v>
+      </c>
+      <c r="F54" s="3">
         <v>957900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>953800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>908400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>914600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>921800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>905000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>892400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>906300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>887300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>905200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>817800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>833300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>855600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>846000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>823200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>843100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>816300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>807900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>801400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>810400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>790300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>795900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>755500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>733000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>702600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>670800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,32 +4930,38 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F61" s="3">
         <v>4600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>836900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>865500</v>
+      </c>
+      <c r="F66" s="3">
         <v>886600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>879900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>827400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>828700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>836800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>819500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>809700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>824900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>808400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>827800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>737900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>748800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>773200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>765900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>746100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>765200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>739200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>730700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>724800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>732800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>709200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>716100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>676500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>654700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>623000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,37 +5853,43 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F72" s="3">
         <v>91000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>88500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>86800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>83000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -5574,29 +5921,35 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
+      <c r="W72" s="3">
+        <v>0</v>
       </c>
       <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>55000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>54500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>53700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>52900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>52200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F76" s="3">
         <v>71300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>81000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>86000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>85000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>85600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>82600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>81500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>78900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>77300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>79800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>84500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>82400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>80000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>77200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>77800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>81100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>79800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>79100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>78300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>79600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>79100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1900</v>
       </c>
       <c r="Q81" s="3">
         <v>1800</v>
       </c>
       <c r="R81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>700</v>
       </c>
       <c r="AB81" s="3">
         <v>700</v>
       </c>
       <c r="AC81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,20 +6607,22 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
@@ -6238,11 +6635,11 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6274,29 +6671,35 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,20 +7137,26 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
         <v>14500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6736,11 +7169,11 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6772,29 +7205,35 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>3600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>9100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>5000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6886,29 +7327,35 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,20 +7526,26 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>-47500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -7099,11 +7558,11 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -7135,29 +7594,35 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-21800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-21300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,20 +8004,26 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
         <v>42600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
@@ -7545,11 +8036,11 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7581,29 +8072,35 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>41300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>14800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>37300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>28300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,20 +8182,26 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
@@ -7711,11 +8214,11 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7747,25 +8250,31 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>13400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>12400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>11800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>1500</v>
       </c>
     </row>
